--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.100319.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.100319.xlsx_with_dialog_acts.xlsx
@@ -897,12 +897,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -973,12 +973,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2159,12 +2159,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2463,12 +2463,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2577,12 +2577,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2691,12 +2691,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2729,12 +2729,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3185,12 +3185,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3299,12 +3299,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3565,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3683,12 +3683,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3873,12 +3873,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4139,12 +4139,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4367,12 +4367,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4443,12 +4443,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5127,12 +5127,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5203,12 +5203,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5697,12 +5697,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5925,12 +5925,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6157,12 +6157,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6727,12 +6727,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7259,12 +7259,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7605,12 +7605,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7643,12 +7643,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7833,12 +7833,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8213,12 +8213,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8939,12 +8939,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9053,12 +9053,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9281,12 +9281,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9475,12 +9475,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9741,12 +9741,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9779,12 +9779,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10049,12 +10049,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10585,12 +10585,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10623,12 +10623,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10813,12 +10813,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11383,12 +11383,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11649,12 +11649,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11919,12 +11919,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12147,12 +12147,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12489,12 +12489,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13059,12 +13059,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13097,12 +13097,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13211,12 +13211,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13287,12 +13287,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13553,12 +13553,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14275,12 +14275,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14959,12 +14959,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15263,12 +15263,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15339,12 +15339,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15415,12 +15415,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15453,12 +15453,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15719,12 +15719,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16107,12 +16107,12 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16145,12 +16145,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16225,12 +16225,12 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16377,12 +16377,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16415,12 +16415,12 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16605,12 +16605,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16833,12 +16833,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17137,12 +17137,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18201,12 +18201,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18315,12 +18315,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19113,12 +19113,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19151,12 +19151,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19455,12 +19455,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19531,12 +19531,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19607,12 +19607,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19797,12 +19797,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20253,12 +20253,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20367,12 +20367,12 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20405,12 +20405,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20443,12 +20443,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20557,12 +20557,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20709,12 +20709,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21207,12 +21207,12 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21321,12 +21321,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21359,12 +21359,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
